--- a/result/diverse/diverse3/LengthAngleSafety.xlsx
+++ b/result/diverse/diverse3/LengthAngleSafety.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,10 +487,10 @@
         <v>0.1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001626984126984127</v>
+        <v>0.001373819338487304</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08924948771498313</v>
+        <v>0.08924948771498312</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3975110689994951</v>
+        <v>0.5544919454098156</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00466315395840302</v>
+        <v>0.006155956586378645</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4685420132386787</v>
+        <v>0.6059820549089501</v>
       </c>
     </row>
     <row r="5">
@@ -525,10 +525,29 @@
         <v>0.2622868613372672</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002964356875118555</v>
+        <v>0.002743236579369405</v>
       </c>
       <c r="E5" t="n">
         <v>0.2548174959206184</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DWA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01285203008513388</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5421821575419976</v>
       </c>
     </row>
   </sheetData>

--- a/result/diverse/diverse3/LengthAngleSafety.xlsx
+++ b/result/diverse/diverse3/LengthAngleSafety.xlsx
@@ -458,7 +458,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ConventionalQL</t>
+          <t>ClassicalQL</t>
         </is>
       </c>
       <c r="B2" t="n">
